--- a/data/case1/20/Qlm2_14.xlsx
+++ b/data/case1/20/Qlm2_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.24071257181286398</v>
+        <v>-0.26837214234553386</v>
       </c>
       <c r="B1" s="0">
-        <v>0.24053127203401914</v>
+        <v>0.26812717878335945</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.18427269449784056</v>
+        <v>-0.18972571145514827</v>
       </c>
       <c r="B2" s="0">
-        <v>0.18374005585731101</v>
+        <v>0.18914848632841341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13403648133631663</v>
+        <v>-0.11259286388350453</v>
       </c>
       <c r="B3" s="0">
-        <v>0.133709787964019</v>
+        <v>0.11231591655552364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.12570978803368327</v>
+        <v>-0.10431591661359185</v>
       </c>
       <c r="B4" s="0">
-        <v>0.125108227028214</v>
+        <v>0.10379397015684333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12210822706996627</v>
+        <v>-0.10079397019141467</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1200431987476529</v>
+        <v>0.09901150203193243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.020822368657720247</v>
+        <v>-0.042959333580771641</v>
       </c>
       <c r="B6" s="0">
-        <v>0.020589787688408023</v>
+        <v>0.042582239968369962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.010589787790000305</v>
+        <v>-0.032582240051589828</v>
       </c>
       <c r="B7" s="0">
-        <v>0.010545303458108446</v>
+        <v>0.032498008243710519</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.00054530356053117401</v>
+        <v>-0.022498008329142394</v>
       </c>
       <c r="B8" s="0">
-        <v>0.00049324110152104694</v>
+        <v>0.022369070020312964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0015067588487256423</v>
+        <v>-0.020369070064696793</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0015414674616933688</v>
+        <v>0.020269830672471567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.020201252142509674</v>
+        <v>-0.018269830719129132</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.020201275926575946</v>
+        <v>0.018264681832329543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.023201275870499138</v>
+        <v>-0.024392161028551129</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.023205713127442351</v>
+        <v>0.024365845796257446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.026705713068644776</v>
+        <v>-0.020865845852119591</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.026779511973995085</v>
+        <v>0.020671058430362432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.030279511919568236</v>
+        <v>-0.017171058489768853</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.030344620806658895</v>
+        <v>0.017082378613092253</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.038344620724288347</v>
+        <v>-0.0090823786980429588</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.038434528992883799</v>
+        <v>0.0090534589431268131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.03943452895913957</v>
+        <v>-0.0080534589905774112</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.039546484176236518</v>
+        <v>0.008034786729916199</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.041546484139031836</v>
+        <v>-0.0060347867834371627</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.041977678736603075</v>
+        <v>0.0060034776903772347</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040031561659752413</v>
+        <v>-0.0040034777448179071</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999559690025</v>
+        <v>0.0039999999343862669</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.050258577577878327</v>
+        <v>-0.016103995643007352</v>
       </c>
       <c r="B18" s="0">
-        <v>0.050200044231978325</v>
+        <v>0.016091381288802609</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.046200044260992001</v>
+        <v>-0.012091381312657301</v>
       </c>
       <c r="B19" s="0">
-        <v>0.045783168294013521</v>
+        <v>0.012016591536459398</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.041783168330985276</v>
+        <v>-0.0080165915620113992</v>
       </c>
       <c r="B20" s="0">
-        <v>0.041673908121637737</v>
+        <v>0.0080056375077219855</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057198782781356</v>
+        <v>-0.0040056375335515426</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999609747761</v>
+        <v>0.0039999999739439573</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045703574559203375</v>
+        <v>-0.072555622477494808</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045492912074680092</v>
+        <v>0.072161731602236046</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0404929121215023</v>
+        <v>-0.040495494420451195</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097775252169399</v>
+        <v>0.040098312120139035</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097775401845652</v>
+        <v>-0.020098312245853123</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999848447914</v>
+        <v>0.019999999872634788</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097220830138136094</v>
+        <v>-0.054052168489812757</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097098306963033565</v>
+        <v>0.053994236069327073</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094598307016482863</v>
+        <v>-0.035358442507927634</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094440114449819035</v>
+        <v>0.035341363892202438</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091940114505914217</v>
+        <v>-0.032841363935138368</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091000655121502128</v>
+        <v>0.032750490758456152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089000655186737276</v>
+        <v>-0.030750490802283537</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088357520019751057</v>
+        <v>0.030697866021226261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081357520126966065</v>
+        <v>-0.023697866094749109</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081171215297379362</v>
+        <v>0.023688785127723655</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021171215759371087</v>
+        <v>0.036311214509289425</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022954585029119</v>
+        <v>-0.036416259248358784</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022954699981938</v>
+        <v>-0.014022148155421021</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001054793663315</v>
+        <v>0.014001192772850501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040010549289561936</v>
+        <v>-0.0040011928608052472</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999904189977</v>
+        <v>0.0039999999446038714</v>
       </c>
     </row>
   </sheetData>
